--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H2">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I2">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J2">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N2">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O2">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P2">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q2">
-        <v>96.7438395478935</v>
+        <v>226.153101448256</v>
       </c>
       <c r="R2">
-        <v>386.975358191574</v>
+        <v>904.6124057930239</v>
       </c>
       <c r="S2">
-        <v>0.001110186722913191</v>
+        <v>0.002471996037815841</v>
       </c>
       <c r="T2">
-        <v>0.0005731713420993851</v>
+        <v>0.00132217513692493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H3">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I3">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J3">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>171.99239</v>
       </c>
       <c r="O3">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P3">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q3">
-        <v>1578.028859641676</v>
+        <v>1374.530301668111</v>
       </c>
       <c r="R3">
-        <v>9468.17315785006</v>
+        <v>8247.181810008669</v>
       </c>
       <c r="S3">
-        <v>0.01810871572324503</v>
+        <v>0.01502448313917469</v>
       </c>
       <c r="T3">
-        <v>0.01402385294370006</v>
+        <v>0.01205402299268036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H4">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I4">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J4">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N4">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O4">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P4">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q4">
-        <v>2.195805040175</v>
+        <v>0.7209650502814999</v>
       </c>
       <c r="R4">
-        <v>13.17483024105</v>
+        <v>4.325790301689</v>
       </c>
       <c r="S4">
-        <v>2.519802411295998E-05</v>
+        <v>7.880602725704122E-06</v>
       </c>
       <c r="T4">
-        <v>1.951399480960185E-05</v>
+        <v>6.322544713976435E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H5">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I5">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J5">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N5">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O5">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P5">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q5">
-        <v>767.1708466234392</v>
+        <v>767.3734801807622</v>
       </c>
       <c r="R5">
-        <v>3068.683386493757</v>
+        <v>3069.493920723049</v>
       </c>
       <c r="S5">
-        <v>0.008803691192200149</v>
+        <v>0.008387876135166865</v>
       </c>
       <c r="T5">
-        <v>0.004545202524869735</v>
+        <v>0.004486350749705289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H6">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I6">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J6">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N6">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O6">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P6">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q6">
-        <v>98.06217125878933</v>
+        <v>1.036361785889</v>
       </c>
       <c r="R6">
-        <v>588.3730275527359</v>
+        <v>6.218170715333999</v>
       </c>
       <c r="S6">
-        <v>0.00112531527651073</v>
+        <v>1.132808797250794E-05</v>
       </c>
       <c r="T6">
-        <v>0.0008714729522661973</v>
+        <v>9.088434631583431E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H7">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I7">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J7">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N7">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O7">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P7">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q7">
-        <v>8.880649404287666</v>
+        <v>0.5269399154258333</v>
       </c>
       <c r="R7">
-        <v>53.283896425726</v>
+        <v>3.161639492555</v>
       </c>
       <c r="S7">
-        <v>0.0001019101485485934</v>
+        <v>5.759785626454072E-06</v>
       </c>
       <c r="T7">
-        <v>7.892182739837049E-05</v>
+        <v>4.621030070123333E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J8">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N8">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O8">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P8">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q8">
-        <v>2917.810123870635</v>
+        <v>7830.633146557013</v>
       </c>
       <c r="R8">
-        <v>17506.86074322381</v>
+        <v>46983.79887934207</v>
       </c>
       <c r="S8">
-        <v>0.03348341428912623</v>
+        <v>0.08559375921849692</v>
       </c>
       <c r="T8">
-        <v>0.02593041302431726</v>
+        <v>0.06867119035592884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J9">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>171.99239</v>
       </c>
       <c r="O9">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P9">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q9">
         <v>47593.61013517654</v>
@@ -1013,10 +1013,10 @@
         <v>428342.4912165889</v>
       </c>
       <c r="S9">
-        <v>0.546161846733632</v>
+        <v>0.5202281769566047</v>
       </c>
       <c r="T9">
-        <v>0.6344425694601039</v>
+        <v>0.6260623758288796</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J10">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N10">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O10">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P10">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q10">
-        <v>66.22584142008333</v>
+        <v>24.96367630640333</v>
       </c>
       <c r="R10">
-        <v>596.03257278075</v>
+        <v>224.67308675763</v>
       </c>
       <c r="S10">
-        <v>0.0007599765545994591</v>
+        <v>0.0002728687270860425</v>
       </c>
       <c r="T10">
-        <v>0.0008828179429103774</v>
+        <v>0.0003283806051573021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J11">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N11">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O11">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P11">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q11">
-        <v>23137.99900311086</v>
+        <v>26570.58502055147</v>
       </c>
       <c r="R11">
-        <v>138827.9940186651</v>
+        <v>159423.5101233088</v>
       </c>
       <c r="S11">
-        <v>0.2655207753597128</v>
+        <v>0.2904332528390303</v>
       </c>
       <c r="T11">
-        <v>0.2056260843700831</v>
+        <v>0.2330122823614767</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J12">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N12">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O12">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P12">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q12">
-        <v>2957.571225255982</v>
+        <v>35.88440264775333</v>
       </c>
       <c r="R12">
-        <v>26618.14102730384</v>
+        <v>322.95962382978</v>
       </c>
       <c r="S12">
-        <v>0.03393969395564252</v>
+        <v>0.0003922391539031382</v>
       </c>
       <c r="T12">
-        <v>0.03942565151463085</v>
+        <v>0.0004720355172268811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J13">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N13">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O13">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P13">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q13">
-        <v>267.8418477028544</v>
+        <v>18.24548565353889</v>
       </c>
       <c r="R13">
-        <v>2410.57662932569</v>
+        <v>164.20937088185</v>
       </c>
       <c r="S13">
-        <v>0.00307362685365655</v>
+        <v>0.0001994346659618704</v>
       </c>
       <c r="T13">
-        <v>0.003570442956163667</v>
+        <v>0.0002400072628229492</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H14">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I14">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J14">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N14">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O14">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P14">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q14">
-        <v>3.558084984787501</v>
+        <v>1.283388552362667</v>
       </c>
       <c r="R14">
-        <v>21.348509908725</v>
+        <v>7.700331314175999</v>
       </c>
       <c r="S14">
-        <v>4.083090693493028E-05</v>
+        <v>1.402824633446205E-05</v>
       </c>
       <c r="T14">
-        <v>3.162049938628977E-05</v>
+        <v>1.125475014988623E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H15">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I15">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J15">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>171.99239</v>
       </c>
       <c r="O15">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P15">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q15">
-        <v>58.03739873558334</v>
+        <v>7.800275312342222</v>
       </c>
       <c r="R15">
-        <v>522.33658862025</v>
+        <v>70.20247781108</v>
       </c>
       <c r="S15">
-        <v>0.0006660098442419779</v>
+        <v>8.526192894327604E-05</v>
       </c>
       <c r="T15">
-        <v>0.0007736626045808051</v>
+        <v>0.0001026074483590173</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H16">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I16">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J16">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N16">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O16">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P16">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q16">
-        <v>0.08075822687500001</v>
+        <v>0.004091380070666666</v>
       </c>
       <c r="R16">
-        <v>0.7268240418750002</v>
+        <v>0.036822420636</v>
       </c>
       <c r="S16">
-        <v>9.267433633151524E-07</v>
+        <v>4.472136468223834E-08</v>
       </c>
       <c r="T16">
-        <v>1.076540670440716E-06</v>
+        <v>5.381939130453402E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H17">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I17">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J17">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N17">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O17">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P17">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q17">
-        <v>28.21532702127501</v>
+        <v>4.354741692879333</v>
       </c>
       <c r="R17">
-        <v>169.29196212765</v>
+        <v>26.128450157276</v>
       </c>
       <c r="S17">
-        <v>0.0003237857995719312</v>
+        <v>4.760007332011842E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002507480103973614</v>
+        <v>3.818915918364804E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H18">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I18">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J18">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N18">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O18">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P18">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q18">
-        <v>3.606571134266667</v>
+        <v>0.005881214290666666</v>
       </c>
       <c r="R18">
-        <v>32.45914020840001</v>
+        <v>0.05293092861599999</v>
       </c>
       <c r="S18">
-        <v>4.138731114266598E-05</v>
+        <v>6.428538158872116E-08</v>
       </c>
       <c r="T18">
-        <v>4.80770895686604E-05</v>
+        <v>7.736347339728601E-08</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H19">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I19">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J19">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N19">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O19">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P19">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q19">
-        <v>0.3266162005583333</v>
+        <v>0.002990313424444445</v>
       </c>
       <c r="R19">
-        <v>2.939545805025</v>
+        <v>0.02691282082</v>
       </c>
       <c r="S19">
-        <v>3.74809363617106E-06</v>
+        <v>3.268601177572395E-08</v>
       </c>
       <c r="T19">
-        <v>4.353929464921375E-06</v>
+        <v>3.933558983366533E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H20">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I20">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J20">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N20">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O20">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P20">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q20">
-        <v>196.7777280635445</v>
+        <v>666.6435550206719</v>
       </c>
       <c r="R20">
-        <v>787.1109122541781</v>
+        <v>2666.574220082688</v>
       </c>
       <c r="S20">
-        <v>0.002258128497711939</v>
+        <v>0.007286834520921298</v>
       </c>
       <c r="T20">
-        <v>0.001165835003205695</v>
+        <v>0.00389744614597403</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H21">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I21">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J21">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>171.99239</v>
       </c>
       <c r="O21">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P21">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q21">
-        <v>3209.723071465136</v>
+        <v>4051.77625652559</v>
       </c>
       <c r="R21">
-        <v>19258.33842879082</v>
+        <v>24310.65753915354</v>
       </c>
       <c r="S21">
-        <v>0.03683326974431968</v>
+        <v>0.04428847001481086</v>
       </c>
       <c r="T21">
-        <v>0.02852462682745194</v>
+        <v>0.03553228626395795</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H22">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I22">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J22">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N22">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O22">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P22">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q22">
-        <v>4.466284665724999</v>
+        <v>2.125227118653</v>
       </c>
       <c r="R22">
-        <v>26.79770799435</v>
+        <v>12.751362711918</v>
       </c>
       <c r="S22">
-        <v>5.125297858561828E-05</v>
+        <v>2.32300728273276E-05</v>
       </c>
       <c r="T22">
-        <v>3.969161842265193E-05</v>
+        <v>1.863730215465021E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H23">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I23">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J23">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N23">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O23">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P23">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q23">
-        <v>1560.431516266333</v>
+        <v>2262.02772184106</v>
       </c>
       <c r="R23">
-        <v>6241.726065065332</v>
+        <v>9048.110887364239</v>
       </c>
       <c r="S23">
-        <v>0.01790677690145391</v>
+        <v>0.02472538970286943</v>
       </c>
       <c r="T23">
-        <v>0.009244977567690792</v>
+        <v>0.0132246553051915</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H24">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I24">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J24">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N24">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O24">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P24">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q24">
-        <v>199.4592250985653</v>
+        <v>3.054938892317999</v>
       </c>
       <c r="R24">
-        <v>1196.755350591392</v>
+        <v>18.329633353908</v>
       </c>
       <c r="S24">
-        <v>0.002288900094329597</v>
+        <v>3.339240890007192E-05</v>
       </c>
       <c r="T24">
-        <v>0.001772582816819844</v>
+        <v>2.67904633346716E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H25">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I25">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J25">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N25">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O25">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P25">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q25">
-        <v>18.06331050815367</v>
+        <v>1.553288883735</v>
       </c>
       <c r="R25">
-        <v>108.379863048922</v>
+        <v>9.319733302409999</v>
       </c>
       <c r="S25">
-        <v>0.0002072860410722367</v>
+        <v>1.697842718754332E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001605276156357875</v>
+        <v>1.362165671873079E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H26">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I26">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J26">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N26">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O26">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P26">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q26">
-        <v>85.125537325647</v>
+        <v>2.73222987712</v>
       </c>
       <c r="R26">
-        <v>510.753223953882</v>
+        <v>16.39337926272</v>
       </c>
       <c r="S26">
-        <v>0.0009768605604390894</v>
+        <v>2.986499582535258E-05</v>
       </c>
       <c r="T26">
-        <v>0.0007565058204825214</v>
+        <v>2.396044795820362E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H27">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I27">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J27">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>171.99239</v>
       </c>
       <c r="O27">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P27">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q27">
-        <v>1388.517917214509</v>
+        <v>16.60615190848333</v>
       </c>
       <c r="R27">
-        <v>12496.66125493058</v>
+        <v>149.45536717635</v>
       </c>
       <c r="S27">
-        <v>0.01593397743383434</v>
+        <v>0.0001815157141699917</v>
       </c>
       <c r="T27">
-        <v>0.01850951992582433</v>
+        <v>0.0002184429146616952</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H28">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I28">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J28">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2173,28 +2173,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N28">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O28">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P28">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q28">
-        <v>1.932103220016667</v>
+        <v>0.008710215505</v>
       </c>
       <c r="R28">
-        <v>17.38892898015</v>
+        <v>0.078391939545</v>
       </c>
       <c r="S28">
-        <v>2.217190626487837E-05</v>
+        <v>9.520814916530588E-08</v>
       </c>
       <c r="T28">
-        <v>2.575573754308494E-05</v>
+        <v>1.145771080940006E-07</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H29">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I29">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J29">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N29">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O29">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P29">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q29">
-        <v>675.0386468490514</v>
+        <v>9.2708909850575</v>
       </c>
       <c r="R29">
-        <v>4050.231881094308</v>
+        <v>55.625345910345</v>
       </c>
       <c r="S29">
-        <v>0.007746425474607094</v>
+        <v>0.000101336685790835</v>
       </c>
       <c r="T29">
-        <v>0.005999030155174076</v>
+        <v>8.130161478498948E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H30">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I30">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J30">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N30">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O30">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P30">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q30">
-        <v>86.28554602271645</v>
+        <v>0.01252062703</v>
       </c>
       <c r="R30">
-        <v>776.569914204448</v>
+        <v>0.11268564327</v>
       </c>
       <c r="S30">
-        <v>0.0009901722737220089</v>
+        <v>1.368583504312963E-07</v>
       </c>
       <c r="T30">
-        <v>0.001150222127937705</v>
+        <v>1.647005445269951E-07</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H31">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I31">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J31">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N31">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O31">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P31">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q31">
-        <v>7.814141508890889</v>
+        <v>0.006366134141666666</v>
       </c>
       <c r="R31">
-        <v>70.32727358001799</v>
+        <v>0.057295207275</v>
       </c>
       <c r="S31">
-        <v>8.967140641385066E-05</v>
+        <v>6.958586140816117E-08</v>
       </c>
       <c r="T31">
-        <v>0.0001041657483629593</v>
+        <v>8.374227242390708E-08</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H32">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I32">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J32">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N32">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O32">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P32">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q32">
-        <v>4.6399579238115</v>
+        <v>1.192318939477333</v>
       </c>
       <c r="R32">
-        <v>27.839747542869</v>
+        <v>7.153913636863999</v>
       </c>
       <c r="S32">
-        <v>5.324597107127683E-05</v>
+        <v>1.303279802631901E-05</v>
       </c>
       <c r="T32">
-        <v>4.123504281364272E-05</v>
+        <v>1.045610991160113E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H33">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I33">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J33">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>171.99239</v>
       </c>
       <c r="O33">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P33">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q33">
-        <v>75.68427659595666</v>
+        <v>7.24676558079111</v>
       </c>
       <c r="R33">
-        <v>681.15848936361</v>
+        <v>65.22089022711999</v>
       </c>
       <c r="S33">
-        <v>0.0008685171004457017</v>
+        <v>7.921171846849323E-05</v>
       </c>
       <c r="T33">
-        <v>0.001008902808063687</v>
+        <v>9.532639494459743E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H34">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I34">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J34">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2545,28 +2545,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N34">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O34">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P34">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q34">
-        <v>0.105313610075</v>
+        <v>0.003801054589333333</v>
       </c>
       <c r="R34">
-        <v>0.947822490675</v>
+        <v>0.034209491304</v>
       </c>
       <c r="S34">
-        <v>1.208529371934233E-06</v>
+        <v>4.154792405755964E-08</v>
       </c>
       <c r="T34">
-        <v>1.403874116406207E-06</v>
+        <v>5.000035215009785E-08</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H35">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I35">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J35">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N35">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O35">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P35">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q35">
-        <v>36.79449219033101</v>
+        <v>4.045727996710666</v>
       </c>
       <c r="R35">
-        <v>220.766953141986</v>
+        <v>24.274367980264</v>
       </c>
       <c r="S35">
-        <v>0.0004222362570778082</v>
+        <v>4.422235872028327E-05</v>
       </c>
       <c r="T35">
-        <v>0.0003269905645024076</v>
+        <v>3.547924569963841E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H36">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I36">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J36">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N36">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O36">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P36">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q36">
-        <v>4.703186793957333</v>
+        <v>0.005463881669333332</v>
       </c>
       <c r="R36">
-        <v>42.328681145616</v>
+        <v>0.04917493502399999</v>
       </c>
       <c r="S36">
-        <v>5.397155579552126E-05</v>
+        <v>5.972367281806633E-08</v>
       </c>
       <c r="T36">
-        <v>6.269543129285985E-05</v>
+        <v>7.187373955106679E-08</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H37">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I37">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J37">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N37">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O37">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P37">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q37">
-        <v>0.4259272710756666</v>
+        <v>0.002778119942222222</v>
       </c>
       <c r="R37">
-        <v>3.833345439681</v>
+        <v>0.02500307948</v>
       </c>
       <c r="S37">
-        <v>4.887740692168434E-06</v>
+        <v>3.036660318064131E-08</v>
       </c>
       <c r="T37">
-        <v>5.67778723859931E-06</v>
+        <v>3.654432530806759E-08</v>
       </c>
     </row>
   </sheetData>
